--- a/document/仕様・設計書/全ドキュメントページ数.xlsx
+++ b/document/仕様・設計書/全ドキュメントページ数.xlsx
@@ -2528,7 +2528,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -2887,7 +2887,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7">
         <f t="shared" ref="C40:J40" si="3">SUM(C3:C39)</f>
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="3"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="J40" s="8">
         <f t="shared" si="3"/>
-        <v>1293</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様・設計書/全ドキュメントページ数.xlsx
+++ b/document/仕様・設計書/全ドキュメントページ数.xlsx
@@ -2528,7 +2528,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -2887,7 +2887,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7">
         <f t="shared" ref="C40:J40" si="3">SUM(C3:C39)</f>
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="3"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="J40" s="8">
         <f t="shared" si="3"/>
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様・設計書/全ドキュメントページ数.xlsx
+++ b/document/仕様・設計書/全ドキュメントページ数.xlsx
@@ -2462,7 +2462,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -2494,11 +2494,11 @@
         <v>40</v>
       </c>
       <c r="C28" s="36">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D28" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="37">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="38">
         <v>1</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="J28" s="40">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -2626,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2887,11 +2887,11 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7">
         <f t="shared" ref="C40:J40" si="3">SUM(C3:C39)</f>
-        <v>1508</v>
+        <v>1556</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" si="3"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="G40" s="20">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="3"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="J40" s="8">
         <f t="shared" si="3"/>
-        <v>1299</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様・設計書/全ドキュメントページ数.xlsx
+++ b/document/仕様・設計書/全ドキュメントページ数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ゲームシステムのアーキテクチャと開発環境</t>
   </si>
@@ -290,6 +290,13 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム最適化Tips</t>
+    <rPh sb="5" eb="8">
+      <t>サイテキカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1596,7 +1603,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1668,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="24">
-        <f t="shared" ref="D3:D39" si="0">SUM(E3:I3)</f>
+        <f t="shared" ref="D3:D40" si="0">SUM(E3:I3)</f>
         <v>5</v>
       </c>
       <c r="E3" s="25">
@@ -1691,7 +1698,7 @@
       </c>
       <c r="J3" s="28">
         <f>C3-D3</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1724,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="34">
-        <f t="shared" ref="J4:J39" si="1">C4-D4</f>
+        <f t="shared" ref="J4:J40" si="1">C4-D4</f>
         <v>7</v>
       </c>
     </row>
@@ -2366,7 +2373,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -2389,7 +2396,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -2459,463 +2466,495 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1">
+        <v>749</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(E27:I27)</f>
+        <v>20</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>9</v>
+      </c>
+      <c r="H27" s="17">
+        <v>8</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ref="J27" si="2">C27-D27</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C28" s="1">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
         <v>2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>3</v>
       </c>
-      <c r="I27" s="18">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36" t="s">
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="36">
-        <v>66</v>
-      </c>
-      <c r="D28" s="36">
-        <f t="shared" si="0"/>
+      <c r="C29" s="36">
+        <v>29</v>
+      </c>
+      <c r="D29" s="36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="38">
+        <v>1</v>
+      </c>
+      <c r="G29" s="38">
+        <v>1</v>
+      </c>
+      <c r="H29" s="38">
+        <v>1</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="3">
+        <v>72</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="36">
+        <v>12</v>
+      </c>
+      <c r="D31" s="36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="37">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38">
+        <v>1</v>
+      </c>
+      <c r="G31" s="38">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38">
+        <v>1</v>
+      </c>
+      <c r="I31" s="39">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1">
+        <v>234</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
         <v>6</v>
       </c>
-      <c r="E28" s="37">
-        <v>1</v>
-      </c>
-      <c r="F28" s="38">
-        <v>1</v>
-      </c>
-      <c r="G28" s="38">
+      <c r="H33" s="17">
+        <v>6</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="36">
+        <v>79</v>
+      </c>
+      <c r="D34" s="36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="37">
+        <v>1</v>
+      </c>
+      <c r="F34" s="38">
+        <v>1</v>
+      </c>
+      <c r="G34" s="38">
         <v>2</v>
       </c>
-      <c r="H28" s="38">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39">
-        <v>1</v>
-      </c>
-      <c r="J28" s="40">
-        <f t="shared" si="1"/>
+      <c r="H34" s="38">
+        <v>1</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
+        <v>2</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ref="J36:J37" si="3">C36-D36</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+      <c r="C37" s="36">
+        <v>123</v>
+      </c>
+      <c r="D37" s="36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="38">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38">
+        <v>3</v>
+      </c>
+      <c r="H37" s="38">
+        <v>1</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="30">
         <v>41</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="3">
-        <v>72</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
+      <c r="D38" s="30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E38" s="31">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32">
+        <v>1</v>
+      </c>
+      <c r="G38" s="32">
         <v>2</v>
       </c>
-      <c r="E29" s="13">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="36">
-        <v>12</v>
-      </c>
-      <c r="D30" s="36">
-        <f t="shared" si="0"/>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+      <c r="I38" s="33">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="42">
+        <v>9</v>
+      </c>
+      <c r="D39" s="42">
+        <f>SUM(E39:I39)</f>
         <v>5</v>
       </c>
-      <c r="E30" s="37">
-        <v>1</v>
-      </c>
-      <c r="F30" s="38">
-        <v>1</v>
-      </c>
-      <c r="G30" s="38">
-        <v>1</v>
-      </c>
-      <c r="H30" s="38">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39">
-        <v>1</v>
-      </c>
-      <c r="J30" s="40">
-        <f t="shared" si="1"/>
+      <c r="E39" s="43">
+        <v>1</v>
+      </c>
+      <c r="F39" s="44">
+        <v>1</v>
+      </c>
+      <c r="G39" s="44">
+        <v>1</v>
+      </c>
+      <c r="H39" s="44">
+        <v>1</v>
+      </c>
+      <c r="I39" s="45">
+        <v>1</v>
+      </c>
+      <c r="J39" s="46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+      <c r="B40" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="47">
+        <v>31</v>
+      </c>
+      <c r="D40" s="47">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E31" s="13">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1">
-        <v>233</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
-      <c r="G32" s="17">
-        <v>6</v>
-      </c>
-      <c r="H32" s="17">
-        <v>6</v>
-      </c>
-      <c r="I32" s="18">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="36">
-        <v>79</v>
-      </c>
-      <c r="D33" s="36">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E33" s="37">
-        <v>1</v>
-      </c>
-      <c r="F33" s="38">
-        <v>1</v>
-      </c>
-      <c r="G33" s="38">
-        <v>2</v>
-      </c>
-      <c r="H33" s="38">
-        <v>1</v>
-      </c>
-      <c r="I33" s="39">
-        <v>1</v>
-      </c>
-      <c r="J33" s="40">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="3">
-        <v>58</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E34" s="13">
-        <v>1</v>
-      </c>
-      <c r="F34" s="14">
-        <v>1</v>
-      </c>
-      <c r="G34" s="14">
-        <v>2</v>
-      </c>
-      <c r="H34" s="14">
-        <v>2</v>
-      </c>
-      <c r="I34" s="15">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="1">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E35" s="16">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17">
-        <v>1</v>
-      </c>
-      <c r="I35" s="18">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35:J36" si="2">C35-D35</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="36">
-        <v>123</v>
-      </c>
-      <c r="D36" s="36">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E36" s="37">
-        <v>1</v>
-      </c>
-      <c r="F36" s="38">
-        <v>1</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="E40" s="48">
+        <v>1</v>
+      </c>
+      <c r="F40" s="49">
+        <v>1</v>
+      </c>
+      <c r="G40" s="49">
         <v>3</v>
       </c>
-      <c r="H36" s="38">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="40">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="30">
-        <v>41</v>
-      </c>
-      <c r="D37" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E37" s="31">
-        <v>1</v>
-      </c>
-      <c r="F37" s="32">
-        <v>1</v>
-      </c>
-      <c r="G37" s="32">
-        <v>2</v>
-      </c>
-      <c r="H37" s="32">
-        <v>1</v>
-      </c>
-      <c r="I37" s="33">
-        <v>1</v>
-      </c>
-      <c r="J37" s="34">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="42">
-        <v>9</v>
-      </c>
-      <c r="D38" s="42">
-        <f>SUM(E38:I38)</f>
-        <v>5</v>
-      </c>
-      <c r="E38" s="43">
-        <v>1</v>
-      </c>
-      <c r="F38" s="44">
-        <v>1</v>
-      </c>
-      <c r="G38" s="44">
-        <v>1</v>
-      </c>
-      <c r="H38" s="44">
-        <v>1</v>
-      </c>
-      <c r="I38" s="45">
-        <v>1</v>
-      </c>
-      <c r="J38" s="46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="47" t="s">
+      <c r="H40" s="49">
+        <v>1</v>
+      </c>
+      <c r="I40" s="50">
+        <v>1</v>
+      </c>
+      <c r="J40" s="51">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41:J41" si="4">SUM(C3:C40)</f>
+        <v>2281</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="C39" s="47">
-        <v>31</v>
-      </c>
-      <c r="D39" s="47">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E39" s="48">
-        <v>1</v>
-      </c>
-      <c r="F39" s="49">
-        <v>1</v>
-      </c>
-      <c r="G39" s="49">
-        <v>3</v>
-      </c>
-      <c r="H39" s="49">
-        <v>1</v>
-      </c>
-      <c r="I39" s="50">
-        <v>1</v>
-      </c>
-      <c r="J39" s="51">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7">
-        <f t="shared" ref="C40:J40" si="3">SUM(C3:C39)</f>
-        <v>1556</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="E40" s="19">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="F40" s="20">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="G40" s="20">
-        <f t="shared" si="3"/>
+      <c r="H41" s="20">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="H40" s="20">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="I40" s="21">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="3"/>
-        <v>1346</v>
+      <c r="I41" s="21">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="4"/>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>

--- a/document/仕様・設計書/全ドキュメントページ数.xlsx
+++ b/document/仕様・設計書/全ドキュメントページ数.xlsx
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="24">
         <f t="shared" ref="D3:D40" si="0">SUM(E3:I3)</f>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="J3" s="28">
         <f>C3-D3</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2469,7 +2469,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="1">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D27" s="1">
         <f>SUM(E27:I27)</f>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" ref="J27" si="2">C27-D27</f>
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
